--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479231.1713058434</v>
+        <v>503832.6320907038</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.2037313894189</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.76827226216026</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>159.0347330949086</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11.45079441703269</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>56.18438237580115</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>169.0708280266249</v>
       </c>
       <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>147.5063020130015</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.75543250779077</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,64 +1607,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>80.11569190233641</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>24.75543250779077</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>87.5992915859738</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>142.7106847174768</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.95178564207799</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>104.4724193061036</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>126.3200528097372</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8627250096508</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>98.19508828039906</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>19.01466768882744</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,67 +3974,67 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.63780594030547</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>7.56502706666385</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4147,55 +4147,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>157.0512572413442</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>157.0512572413442</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4452,7 +4452,7 @@
         <v>648.6540332037905</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4483,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C5" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4571,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4592,25 +4592,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y5" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="X5" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>146.7482118971399</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4650,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>184.6567645751305</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>184.6567645751305</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4805,49 +4805,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="V8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4866,34 +4866,34 @@
         <v>232.4307839502161</v>
       </c>
       <c r="E9" t="n">
-        <v>73.19332894476057</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="F9" t="n">
-        <v>73.19332894476057</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="G9" t="n">
-        <v>73.19332894476057</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>73.19332894476057</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4914,16 +4914,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
         <v>406.8838132313431</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5124,19 +5124,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N12" t="n">
-        <v>639.4279001397708</v>
-      </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5148,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>398.4882390970787</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.8944568361894</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5218,31 +5218,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5282,16 +5282,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,28 +5300,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.12050152333947</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>98.12050152333947</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D15" t="n">
-        <v>98.12050152333947</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E15" t="n">
-        <v>98.12050152333947</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F15" t="n">
-        <v>98.12050152333947</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G15" t="n">
-        <v>98.12050152333947</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H15" t="n">
-        <v>98.12050152333947</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>305.7142837842288</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>98.12050152333947</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>98.12050152333947</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.12050152333947</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5455,31 +5455,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5540,19 +5540,19 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
         <v>19.28114311021272</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
         <v>248.2447175439888</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5704,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>413.5372890039083</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>413.5372890039083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>254.2998339984528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>107.7652760253378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>510.883919072659</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5944,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>314.750110744579</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>933.8028265792443</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>760.3854820299132</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>558.1988873886792</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>558.1988873886792</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>558.1988873886792</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>314.750110744579</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>314.750110744579</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>314.750110744579</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>292.6418663608746</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="C27" t="n">
-        <v>292.6418663608746</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D27" t="n">
-        <v>292.6418663608746</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,7 +6309,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
         <v>486.8488635328713</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>858.5294592418447</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>656.3428646006107</v>
       </c>
       <c r="U27" t="n">
-        <v>460.8572033809426</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="V27" t="n">
-        <v>460.8572033809426</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="W27" t="n">
-        <v>460.8572033809426</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="X27" t="n">
-        <v>460.8572033809426</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="Y27" t="n">
-        <v>460.8572033809426</v>
+        <v>428.1192463369997</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>743.5980286395683</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>587.9903182850353</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C30" t="n">
-        <v>587.9903182850353</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D30" t="n">
-        <v>439.055908623784</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E30" t="n">
-        <v>279.8184536183285</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F30" t="n">
-        <v>133.2838956452135</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6552,7 +6552,7 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>756.2056553051034</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2056553051034</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="31">
@@ -6637,10 +6637,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,10 +6801,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T33" t="n">
         <v>726.1056462496665</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7053,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.2295980564601</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.2295980564601</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7415,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>446.4674385625565</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>446.4674385625565</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W42" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X42" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7649,16 +7649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7670,28 +7670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.5829991502264</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
         <v>17.19556020784815</v>
@@ -7731,7 +7731,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
         <v>345.2616536067974</v>
@@ -7740,7 +7740,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7764,13 +7764,13 @@
         <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7843,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,10 +8465,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10200,10 +10200,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11148,16 +11148,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11309,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22592,16 +22592,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>5.865481003964987</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.47896438788541</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,10 +22841,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,22 +22863,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>128.3009401312236</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>66.90664898606619</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23063,31 +23063,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23106,22 +23106,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>125.8927227461779</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.21225047561393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,7 +23154,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23166,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>225.8559283604741</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>170.4039740891423</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,7 +23349,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>17.29344485671506</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>52.65842668182015</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,22 +23495,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,19 +23540,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.280940949078669</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,13 +23628,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>26.5151993764422</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23944,10 +23944,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24051,16 +24051,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>49.74422557723683</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>28.972486386361</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24257,16 +24257,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,16 +24285,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>70.20604851056514</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>67.21075179773426</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>99.62132927123766</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,25 +24683,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>140.6346519250378</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>24.48079215355988</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>55.31854389949292</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>403.6107296845148</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,16 +25154,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,7 +25397,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>370.7373139160822</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>68.33809536946828</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>138.6304127665735</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>151.843121629009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25761,10 +25761,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>218.1105251285669</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>179.3248901303182</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,10 +25919,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.8953777095619</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>244.1299560942558</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457650.2038224405</v>
+        <v>457650.2038224406</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760795</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760798</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482044.5851760795</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="D2" t="n">
-        <v>118318.2313761987</v>
+        <v>118318.2313761986</v>
       </c>
       <c r="E2" t="n">
         <v>118318.2313761987</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23521.95646258452</v>
+        <v>-20649.11048265013</v>
       </c>
       <c r="C6" t="n">
-        <v>45351.80011910537</v>
+        <v>48224.64609903973</v>
       </c>
       <c r="D6" t="n">
-        <v>45351.80011910531</v>
+        <v>48224.64609903967</v>
       </c>
       <c r="E6" t="n">
-        <v>78979.40011910531</v>
+        <v>81852.24609903971</v>
       </c>
       <c r="F6" t="n">
-        <v>78979.40011910531</v>
+        <v>81852.24609903971</v>
       </c>
       <c r="G6" t="n">
-        <v>71927.55132956058</v>
+        <v>74955.52444795129</v>
       </c>
       <c r="H6" t="n">
-        <v>81656.5943037277</v>
+        <v>84684.56742211833</v>
       </c>
       <c r="I6" t="n">
-        <v>81656.5943037277</v>
+        <v>84684.56742211839</v>
       </c>
       <c r="J6" t="n">
-        <v>27884.08341351827</v>
+        <v>30912.05653190889</v>
       </c>
       <c r="K6" t="n">
-        <v>81656.59430372766</v>
+        <v>84684.56742211834</v>
       </c>
       <c r="L6" t="n">
-        <v>81656.59430372769</v>
+        <v>84684.56742211834</v>
       </c>
       <c r="M6" t="n">
-        <v>81656.5943037277</v>
+        <v>84684.56742211834</v>
       </c>
       <c r="N6" t="n">
-        <v>81656.59430372769</v>
+        <v>84684.56742211834</v>
       </c>
       <c r="O6" t="n">
-        <v>78979.4001191053</v>
+        <v>81852.24609903971</v>
       </c>
       <c r="P6" t="n">
-        <v>78979.40011910535</v>
+        <v>81852.24609903974</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,10 +35185,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35662,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36920,10 +36920,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37868,16 +37868,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38029,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,19 +38099,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503832.6320907038</v>
+        <v>504616.7780287327</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5432259.585460298</v>
+        <v>5432259.5854603</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>81.13095251577728</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>16.76827226216026</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>155.9508259880458</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11.45079441703269</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>13.74034240511223</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>52.16889198559645</v>
       </c>
       <c r="G12" t="n">
-        <v>120.0500723064956</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>24.75543250779077</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>8.438698031532754</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1707,7 +1709,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.75543250779077</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,67 +2089,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2165,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.5992915859738</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>142.7106847174768</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>75.2377801170462</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,31 +2633,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>104.4724193061036</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>138.3976628935905</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2710,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,61 +2797,61 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>101.6746689730964</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,46 +3204,46 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,17 +3268,17 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3405,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,52 +3444,52 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.19508828039906</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,58 +3669,58 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V42" t="n">
-        <v>14.69006202085835</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>85.46880764579521</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="I44" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>7.56502706666385</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
         <v>16.44142755506243</v>
@@ -4331,16 +4333,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4355,25 +4357,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W2" t="n">
-        <v>670.6884303378189</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>157.0512572413442</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4416,16 +4418,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4449,10 +4451,10 @@
         <v>648.6540332037905</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4592,19 +4594,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
         <v>639.2227743377304</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480.4386961837225</v>
+        <v>395.1604244293274</v>
       </c>
       <c r="C6" t="n">
-        <v>305.9856669025954</v>
+        <v>395.1604244293274</v>
       </c>
       <c r="D6" t="n">
-        <v>305.9856669025954</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="E6" t="n">
-        <v>146.7482118971399</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,10 +4652,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>563.3757614493954</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>563.3757614493954</v>
       </c>
       <c r="X6" t="n">
-        <v>648.6540332037905</v>
+        <v>563.3757614493954</v>
       </c>
       <c r="Y6" t="n">
-        <v>648.6540332037905</v>
+        <v>563.3757614493954</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4781,7 +4783,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4805,43 +4807,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
         <v>639.2227743377304</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C9" t="n">
-        <v>232.4307839502161</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D9" t="n">
-        <v>232.4307839502161</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E9" t="n">
-        <v>232.4307839502161</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F9" t="n">
-        <v>232.4307839502161</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,10 +4916,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
         <v>614.4775954922324</v>
@@ -4926,7 +4928,7 @@
         <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="D12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="E12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="F12" t="n">
-        <v>137.7041268545529</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>137.7041268545529</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.7041268545529</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5217,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.94135112442973</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
         <v>38.93586374282289</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,7 +5281,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
         <v>176.2910403306274</v>
@@ -5300,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5334,40 +5336,40 @@
         <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>813.547440347533</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>664.6130306862817</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.94135112442973</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5631,13 +5633,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>254.2998339984528</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>107.7652760253378</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>107.7652760253378</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>718.7354192781918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>510.883919072659</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6025,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.84447166430675</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.84447166430675</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>428.1192463369997</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C27" t="n">
-        <v>428.1192463369997</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>279.1848366757484</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>858.5294592418447</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>656.3428646006107</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>428.1192463369997</v>
+        <v>347.488067788522</v>
       </c>
       <c r="V27" t="n">
-        <v>428.1192463369997</v>
+        <v>347.488067788522</v>
       </c>
       <c r="W27" t="n">
-        <v>428.1192463369997</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X27" t="n">
-        <v>428.1192463369997</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y27" t="n">
-        <v>428.1192463369997</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>121.9828289416232</v>
       </c>
       <c r="C30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6719,13 +6721,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
@@ -6743,7 +6745,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6786,40 +6788,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6891,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6916,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,16 +6958,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
         <v>749.627473042513</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N36" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N36" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,19 +7040,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
         <v>19.28114311021272</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7137,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,13 +7195,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>500.6814290152826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>292.9211302503287</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7417,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7500,40 +7502,40 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V42" t="n">
-        <v>224.0352098159517</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W42" t="n">
-        <v>16.44142755506243</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="X42" t="n">
-        <v>16.44142755506243</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C44" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F44" t="n">
-        <v>255.5008658160403</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90708355515102</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90708355515102</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7652,7 +7654,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X44" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.5008658160403</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7740,7 +7742,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7758,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>606.8361540107537</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>399.2423717498644</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8064,10 +8066,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,10 +8783,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11148,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11388,10 +11390,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P45" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>323.5320421805953</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>5.865481003964987</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>124.6420326877002</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22802,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22832,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>128.3009401312236</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,7 +22922,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>76.84976116137952</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,10 +23023,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23063,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>125.8927227461779</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>75.65629044630285</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>225.8559283604741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>92.2655240957564</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>92.90032040778743</v>
       </c>
       <c r="G12" t="n">
-        <v>17.29344485671506</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.5379588693787</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>225.8559283604741</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>296.6012590300472</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>164.269800956783</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23595,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23947,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,19 +24053,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>24.63615265052266</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>28.972486386361</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24184,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24217,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24263,10 +24265,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>14.15885273436888</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.21075179773426</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>87.54371918738431</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,25 +24685,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>71.03383001521937</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>55.31854389949292</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24880,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>36.26901108812098</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25293,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.33809536946828</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25530,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>185.6122135940581</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>218.1105251285669</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>120.2138881315092</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2637912448367</v>
       </c>
       <c r="I44" t="n">
-        <v>179.3248901303182</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W45" t="n">
-        <v>244.1299560942558</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457650.2038224405</v>
+        <v>457650.2038224406</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457650.2038224406</v>
+        <v>457650.2038224408</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482044.5851760795</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482044.5851760798</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760795</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457650.2038224406</v>
+        <v>457650.2038224405</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457650.2038224406</v>
+        <v>457650.2038224408</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="D2" t="n">
-        <v>118318.2313761986</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="E2" t="n">
         <v>118318.2313761987</v>
@@ -26418,16 +26420,16 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26454,7 +26456,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
         <v>23970.50033531152</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20649.11048265013</v>
+        <v>-20649.11048265011</v>
       </c>
       <c r="C6" t="n">
-        <v>48224.64609903973</v>
+        <v>48224.64609903974</v>
       </c>
       <c r="D6" t="n">
-        <v>48224.64609903967</v>
+        <v>48224.64609903971</v>
       </c>
       <c r="E6" t="n">
         <v>81852.24609903971</v>
       </c>
       <c r="F6" t="n">
-        <v>81852.24609903971</v>
+        <v>81852.24609903972</v>
       </c>
       <c r="G6" t="n">
-        <v>74955.52444795129</v>
+        <v>74955.52444795125</v>
       </c>
       <c r="H6" t="n">
         <v>84684.56742211833</v>
       </c>
       <c r="I6" t="n">
-        <v>84684.56742211839</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="J6" t="n">
-        <v>30912.05653190889</v>
+        <v>30912.05653190892</v>
       </c>
       <c r="K6" t="n">
-        <v>84684.56742211834</v>
+        <v>84684.56742211833</v>
       </c>
       <c r="L6" t="n">
-        <v>84684.56742211834</v>
+        <v>84684.56742211833</v>
       </c>
       <c r="M6" t="n">
-        <v>84684.56742211834</v>
+        <v>84684.56742211836</v>
       </c>
       <c r="N6" t="n">
-        <v>84684.56742211834</v>
+        <v>84684.56742211833</v>
       </c>
       <c r="O6" t="n">
-        <v>81852.24609903971</v>
+        <v>81852.24609903974</v>
       </c>
       <c r="P6" t="n">
         <v>81852.24609903974</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,10 +35503,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>91.0829537758999</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37868,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,10 +38022,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38110,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P45" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504616.7780287327</v>
+        <v>400384.2797652893</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5432259.5854603</v>
+        <v>5432259.585460299</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -718,16 +718,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.1509994400877</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>81.13095251577728</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,70 +898,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>155.9508259880458</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>113.6716286785589</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,73 +1135,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13.74034240511223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1280,7 +1280,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>52.16889198559645</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,47 +1618,47 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,10 +1861,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="18">
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>90.91642501047005</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87.5992915859738</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.28530073128378</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2408,19 +2408,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>75.2377801170462</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,11 +2560,11 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>66.86520245624395</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>138.3976628935905</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>100.3796369526212</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>101.6746689730964</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2961,58 +2961,58 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,17 +3271,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3310,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.335485208226724</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>109.6205003900232</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.46880764579521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="H44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>88.44896971031777</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,28 +4351,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4415,10 +4415,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4579,10 +4579,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>395.1604244293274</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
-        <v>395.1604244293274</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>246.2260147680761</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4682,16 +4682,16 @@
         <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>563.3757614493954</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>563.3757614493954</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X6" t="n">
-        <v>563.3757614493954</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y6" t="n">
-        <v>563.3757614493954</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4919,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5053,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5065,28 +5065,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.1051990630351</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>412.2910008509983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5369,7 +5369,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5597,43 +5597,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>872.2223827727877</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C21" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>254.2998339984528</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>107.7652760253378</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>107.7652760253378</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>645.7885818937584</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="22">
@@ -5946,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.4702815141908</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C24" t="n">
-        <v>689.4702815141908</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D24" t="n">
-        <v>540.5358718529395</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E24" t="n">
-        <v>381.298416847484</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F24" t="n">
-        <v>234.763858874369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>96.0330334569845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>96.0330334569845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6183,7 +6183,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6208,7 +6208,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179.2727307684539</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C27" t="n">
-        <v>179.2727307684539</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>347.488067788522</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>347.488067788522</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>347.488067788522</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>347.488067788522</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y27" t="n">
-        <v>347.488067788522</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="28">
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.9828289416232</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>290.1981659616912</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>290.1981659616912</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>290.1981659616912</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,19 +6809,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>933.8659450146204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>705.6423267510095</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>276.7704831182267</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>276.7704831182267</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>276.7704831182267</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>276.7704831182267</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>138.0396577008422</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>24.67052210842154</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="40">
@@ -7368,7 +7368,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7420,43 +7420,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7496,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U42" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V42" t="n">
-        <v>311.1214714038841</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W42" t="n">
-        <v>103.5276891429948</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X42" t="n">
-        <v>103.5276891429948</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="43">
@@ -7608,7 +7608,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
         <v>16.44142755506243</v>
@@ -7633,13 +7633,13 @@
         <v>245.4092504478133</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F44" t="n">
         <v>37.81546818692397</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
         <v>28.51141680214578</v>
@@ -7651,16 +7651,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7678,22 +7678,22 @@
         <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>403.7521016246881</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>244.5146466192326</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>244.5146466192326</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>105.7838212018481</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7733,7 +7733,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
         <v>345.2616536067974</v>
@@ -7742,7 +7742,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>639.2227743377304</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8786,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9017,10 +9017,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.0869392159659</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>124.6420326877002</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22831,13 +22831,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>76.84976116137952</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>138.0233544823607</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23023,7 +23023,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.65629044630285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23168,7 +23168,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379377</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>92.2655240957564</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>92.90032040778743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8559283604741</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="18">
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.241409142173083</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>24.63615265052266</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>17.87253342135935</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24107,10 +24107,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,25 +24211,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>264.2941038826066</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24296,19 +24296,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>14.15885273436888</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>90.77987799915699</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>87.54371918738431</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>227.3726215175137</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>71.03383001521937</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24812,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>170.2754303037659</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>84.06114764318835</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6122135940581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>63.08799859829259</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.2138881315092</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>406.0917266442046</v>
       </c>
       <c r="H44" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>23.78647452617869</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>51.78046976818791</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457650.2038224406</v>
+        <v>457650.2038224405</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457650.2038224408</v>
+        <v>457650.2038224406</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760795</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760796</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482044.5851760797</v>
+        <v>482044.5851760795</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482044.5851760795</v>
+        <v>482044.5851760797</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457650.2038224408</v>
+        <v>457650.2038224405</v>
       </c>
     </row>
   </sheetData>
@@ -26420,7 +26420,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
         <v>23970.50033531152</v>
@@ -26429,7 +26429,7 @@
         <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20649.11048265011</v>
+        <v>-33287.27263751061</v>
       </c>
       <c r="C6" t="n">
-        <v>48224.64609903974</v>
+        <v>35586.48394417921</v>
       </c>
       <c r="D6" t="n">
-        <v>48224.64609903971</v>
+        <v>35586.48394417921</v>
       </c>
       <c r="E6" t="n">
-        <v>81852.24609903971</v>
+        <v>69214.0839441792</v>
       </c>
       <c r="F6" t="n">
-        <v>81852.24609903972</v>
+        <v>69214.08394417923</v>
       </c>
       <c r="G6" t="n">
-        <v>74955.52444795125</v>
+        <v>62737.51382791079</v>
       </c>
       <c r="H6" t="n">
-        <v>84684.56742211833</v>
+        <v>72466.55680207789</v>
       </c>
       <c r="I6" t="n">
-        <v>84684.56742211836</v>
+        <v>72466.55680207786</v>
       </c>
       <c r="J6" t="n">
-        <v>30912.05653190892</v>
+        <v>18694.04591186846</v>
       </c>
       <c r="K6" t="n">
-        <v>84684.56742211833</v>
+        <v>72466.55680207789</v>
       </c>
       <c r="L6" t="n">
-        <v>84684.56742211833</v>
+        <v>72466.55680207792</v>
       </c>
       <c r="M6" t="n">
-        <v>84684.56742211836</v>
+        <v>72466.55680207787</v>
       </c>
       <c r="N6" t="n">
-        <v>84684.56742211833</v>
+        <v>72466.55680207787</v>
       </c>
       <c r="O6" t="n">
-        <v>81852.24609903974</v>
+        <v>69214.0839441792</v>
       </c>
       <c r="P6" t="n">
-        <v>81852.24609903974</v>
+        <v>69214.0839441792</v>
       </c>
     </row>
   </sheetData>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35506,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35737,10 +35737,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38101,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
